--- a/testdata/Surgeries.xlsx
+++ b/testdata/Surgeries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2303559_cognizant_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC10481FC91D57765ADE5902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{664F6840-BF2D-4A05-A85F-524FB687B20F}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC10481FC91D57765ADE5902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{126E2899-7285-426C-B4A1-9B19D0F5B255}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doctors_Name" sheetId="8" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="50">
   <si>
     <t>Dr. B. Ramesh</t>
   </si>
@@ -43,148 +43,145 @@
     <t>Dr. K P Srihari Das</t>
   </si>
   <si>
-    <t>Dr. Sreekanth B. Shetty</t>
+    <t>Piles</t>
+  </si>
+  <si>
+    <t>Hernia Treatment</t>
+  </si>
+  <si>
+    <t>Kidney Stone</t>
+  </si>
+  <si>
+    <t>Cataract</t>
+  </si>
+  <si>
+    <t>Circumcision</t>
+  </si>
+  <si>
+    <t>Lasik</t>
+  </si>
+  <si>
+    <t>Varicose Veins</t>
+  </si>
+  <si>
+    <t>Gallstone</t>
+  </si>
+  <si>
+    <t>Anal Fistula</t>
+  </si>
+  <si>
+    <t>Gynaecomastia</t>
+  </si>
+  <si>
+    <t>Anal Fissure</t>
+  </si>
+  <si>
+    <t>Lipoma Removal</t>
+  </si>
+  <si>
+    <t>Sebaceous cyst</t>
+  </si>
+  <si>
+    <t>Pilonidal Sinus</t>
+  </si>
+  <si>
+    <t>Lump in Breast</t>
+  </si>
+  <si>
+    <t>TURP</t>
+  </si>
+  <si>
+    <t>Hydrocele</t>
+  </si>
+  <si>
+    <t>Knee Replacement</t>
+  </si>
+  <si>
+    <t>Hair Transplant</t>
+  </si>
+  <si>
+    <t>Varicocele</t>
+  </si>
+  <si>
+    <t>Appendectomy</t>
+  </si>
+  <si>
+    <t>Perianal Abscess</t>
+  </si>
+  <si>
+    <t>Glaucoma</t>
+  </si>
+  <si>
+    <t>Squinteye</t>
+  </si>
+  <si>
+    <t>Renal cyst</t>
+  </si>
+  <si>
+    <t>Urethroplasty</t>
+  </si>
+  <si>
+    <t>Cystolitholapaxy</t>
+  </si>
+  <si>
+    <t>Kidney Biopsy</t>
+  </si>
+  <si>
+    <t>CRRT</t>
+  </si>
+  <si>
+    <t>Ureteroscopy</t>
+  </si>
+  <si>
+    <t>Percutaneous Nephrolithotomy(PCNL)</t>
+  </si>
+  <si>
+    <t>Dialysis</t>
+  </si>
+  <si>
+    <t>ESWL</t>
+  </si>
+  <si>
+    <t>Lithotripsy</t>
+  </si>
+  <si>
+    <t>Rhinoplasty</t>
+  </si>
+  <si>
+    <t>Breast Reduction/ Augmentation</t>
+  </si>
+  <si>
+    <t>Breast Lift</t>
+  </si>
+  <si>
+    <t>Liposuction</t>
+  </si>
+  <si>
+    <t>Arthroscopy</t>
+  </si>
+  <si>
+    <t>Carpal Tunnel Syndrome</t>
+  </si>
+  <si>
+    <t>Lumbar Laminectomy</t>
+  </si>
+  <si>
+    <t>ACL Repair</t>
+  </si>
+  <si>
+    <t>Microdiscectomy</t>
+  </si>
+  <si>
+    <t>Knee Arthroscopy</t>
+  </si>
+  <si>
+    <t>Shoulder Arthroscopy</t>
+  </si>
+  <si>
+    <t>Dr. Roopa. R</t>
   </si>
   <si>
     <t>Dr. AV Praveen Kumar</t>
-  </si>
-  <si>
-    <t>Piles</t>
-  </si>
-  <si>
-    <t>Hernia Treatment</t>
-  </si>
-  <si>
-    <t>Kidney Stone</t>
-  </si>
-  <si>
-    <t>Cataract</t>
-  </si>
-  <si>
-    <t>Circumcision</t>
-  </si>
-  <si>
-    <t>Lasik</t>
-  </si>
-  <si>
-    <t>Varicose Veins</t>
-  </si>
-  <si>
-    <t>Gallstone</t>
-  </si>
-  <si>
-    <t>Anal Fistula</t>
-  </si>
-  <si>
-    <t>Gynaecomastia</t>
-  </si>
-  <si>
-    <t>Anal Fissure</t>
-  </si>
-  <si>
-    <t>Lipoma Removal</t>
-  </si>
-  <si>
-    <t>Sebaceous cyst</t>
-  </si>
-  <si>
-    <t>Pilonidal Sinus</t>
-  </si>
-  <si>
-    <t>Lump in Breast</t>
-  </si>
-  <si>
-    <t>TURP</t>
-  </si>
-  <si>
-    <t>Hydrocele</t>
-  </si>
-  <si>
-    <t>Knee Replacement</t>
-  </si>
-  <si>
-    <t>Hair Transplant</t>
-  </si>
-  <si>
-    <t>Varicocele</t>
-  </si>
-  <si>
-    <t>Appendectomy</t>
-  </si>
-  <si>
-    <t>Glaucoma</t>
-  </si>
-  <si>
-    <t>Squinteye</t>
-  </si>
-  <si>
-    <t>Perianal Abscess</t>
-  </si>
-  <si>
-    <t>Renal cyst</t>
-  </si>
-  <si>
-    <t>Urethroplasty</t>
-  </si>
-  <si>
-    <t>Cystolitholapaxy</t>
-  </si>
-  <si>
-    <t>Kidney Biopsy</t>
-  </si>
-  <si>
-    <t>CRRT</t>
-  </si>
-  <si>
-    <t>Ureteroscopy</t>
-  </si>
-  <si>
-    <t>Percutaneous Nephrolithotomy(PCNL)</t>
-  </si>
-  <si>
-    <t>Dialysis</t>
-  </si>
-  <si>
-    <t>ESWL</t>
-  </si>
-  <si>
-    <t>Lithotripsy</t>
-  </si>
-  <si>
-    <t>Rhinoplasty</t>
-  </si>
-  <si>
-    <t>Breast Reduction/ Augmentation</t>
-  </si>
-  <si>
-    <t>Breast Lift</t>
-  </si>
-  <si>
-    <t>Liposuction</t>
-  </si>
-  <si>
-    <t>Arthroscopy</t>
-  </si>
-  <si>
-    <t>Carpal Tunnel Syndrome</t>
-  </si>
-  <si>
-    <t>Lumbar Laminectomy</t>
-  </si>
-  <si>
-    <t>ACL Repair</t>
-  </si>
-  <si>
-    <t>Microdiscectomy</t>
-  </si>
-  <si>
-    <t>Knee Arthroscopy</t>
-  </si>
-  <si>
-    <t>Shoulder Arthroscopy</t>
-  </si>
-  <si>
-    <t>Dr. Roopa. R</t>
   </si>
 </sst>
 </file>
@@ -238,10 +235,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE945D0-0B86-45CC-BA8E-F9F0D7F6D037}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -532,12 +525,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -555,97 +548,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -663,47 +656,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -721,27 +714,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -759,22 +752,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -792,62 +785,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -865,32 +858,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5A1170-FDA0-4AA4-93DD-32E4DF960225}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -910,42 +903,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
